--- a/MasterTables_v1.xlsx
+++ b/MasterTables_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1356">
   <si>
     <t xml:space="preserve">WAV</t>
   </si>
@@ -4082,6 +4082,9 @@
   </si>
   <si>
     <t xml:space="preserve">16DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM4 SIN GANANCIA</t>
   </si>
   <si>
     <t xml:space="preserve">GHA</t>
@@ -4112,7 +4115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4134,12 +4137,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4184,16 +4181,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4553,10 +4546,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4597,6 +4590,11 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>1347</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>1348</v>
       </c>
     </row>
   </sheetData>
@@ -4633,32 +4631,32 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
   </sheetData>
@@ -4695,7 +4693,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
   </sheetData>
@@ -4722,7 +4720,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11528,7 +11526,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -11550,7 +11548,7 @@
   </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
